--- a/member.xlsx
+++ b/member.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,24 +422,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>LOVE_LOVENO</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>maybediannas</t>
+          <t>https://t.me/LOVE_LOVENO</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
-          <t>khorovod_bot</t>
+          <t>https://t.me/maybediannas</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
-          <t>aleshanoff</t>
+          <t>https://t.me/khorovod_bot</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://t.me/aleshanoff</t>
         </is>
       </c>
     </row>

--- a/member.xlsx
+++ b/member.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>https://t.me/LOVE_LOVENO</t>
+          <t>https://t.me/AiInsighter</t>
         </is>
       </c>
     </row>
@@ -437,7 +437,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://t.me/maybediannas</t>
+          <t>https://t.me/khorovod_bot</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://t.me/khorovod_bot</t>
+          <t>https://t.me/aleshanoff</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://t.me/aleshanoff</t>
+          <t>https://t.me/blackgraf14</t>
         </is>
       </c>
     </row>
